--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV091-001 - Setup Profile Bank Investasi - Pasar Uang Tambah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV091-001 - Setup Profile Bank Investasi - Pasar Uang Tambah Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC111754-0758-4BC0-BCDD-4238F8B65F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D8078-04E5-432E-93C5-F449F4768E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,6 +163,9 @@
     <t>IDR : Rupiah</t>
   </si>
   <si>
+    <t>PAU0228</t>
+  </si>
+  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
@@ -170,7 +173,7 @@
 Valuta : IDR - Rupiah;
 No Rekening : 12345678;
 Pemilik Rekening : Tester;
-Bank ID : -;
+Bank ID : PAU0228;
 Emiten : E0001 - Pemerintah;
 Kode BI : 002 - Bank Rakyat Indonesia;
 Cabang Bank : Pejompongan;
@@ -182,9 +185,6 @@
 Syariah : Checked;
 Tgl. Non Aktif : 18/11/2022;
 Non. Aktif : Checked</t>
-  </si>
-  <si>
-    <t>PAU0226</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +707,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>31246</v>
@@ -731,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>39</v>
